--- a/mySQL_Create/users.xlsx
+++ b/mySQL_Create/users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>Column name</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>end_date</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
   </si>
 </sst>
 </file>
@@ -258,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -563,16 +566,16 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -614,7 +617,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -627,11 +630,13 @@
       <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -648,7 +653,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
@@ -665,7 +670,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -682,7 +687,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
@@ -699,7 +704,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
@@ -716,7 +721,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>29</v>
       </c>
@@ -733,7 +738,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -750,7 +755,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -767,7 +772,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>23</v>
       </c>

--- a/mySQL_Create/users.xlsx
+++ b/mySQL_Create/users.xlsx
@@ -566,13 +566,14 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22.109375" customWidth="1"/>
     <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="79.8" x14ac:dyDescent="0.3">
@@ -627,7 +628,7 @@
       <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -646,7 +647,7 @@
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="9"/>
@@ -714,7 +715,7 @@
       <c r="C8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="9"/>
@@ -782,7 +783,7 @@
       <c r="C12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="13"/>
